--- a/TBTemplate/代码生成工具模板.xlsx
+++ b/TBTemplate/代码生成工具模板.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17865" activeTab="1"/>
+    <workbookView windowHeight="17865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="t_user1-User1-用户1-~" sheetId="17" r:id="rId1"/>
     <sheet name="t_user2-User2-用户2" sheetId="18" r:id="rId2"/>
+    <sheet name="病历单独生成实体-t_ms_treatment_record" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="400">
   <si>
     <t>序号</t>
   </si>
@@ -42,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -74,6 +81,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>诊疗记录表</t>
     </r>
     <r>
@@ -88,6 +101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -114,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>就诊</t>
     </r>
     <r>
@@ -128,6 +153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>（对应</t>
     </r>
     <r>
@@ -160,6 +191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>前缀：</t>
     </r>
     <r>
@@ -183,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>日期前缀：</t>
     </r>
     <r>
@@ -200,6 +243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>流水号长度：</t>
     </r>
     <r>
@@ -220,6 +269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -246,6 +301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>预约</t>
     </r>
     <r>
@@ -260,6 +321,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对应</t>
     </r>
     <r>
@@ -292,6 +359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -318,6 +391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应诊医生</t>
     </r>
     <r>
@@ -332,6 +411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对应</t>
     </r>
     <r>
@@ -364,6 +449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -393,6 +484,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对应</t>
     </r>
     <r>
@@ -425,6 +522,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -460,6 +563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -489,6 +598,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -518,6 +633,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>T-</t>
     </r>
     <r>
@@ -553,6 +674,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -582,6 +709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10</t>
     </r>
     <r>
@@ -614,6 +747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>11</t>
     </r>
     <r>
@@ -646,6 +785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -678,6 +823,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>13</t>
     </r>
     <r>
@@ -710,6 +861,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>14</t>
     </r>
     <r>
@@ -742,6 +899,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>15</t>
     </r>
     <r>
@@ -768,6 +931,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>门诊症状</t>
     </r>
     <r>
@@ -815,6 +984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>16</t>
     </r>
     <r>
@@ -841,6 +1016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>门诊症状</t>
     </r>
     <r>
@@ -867,6 +1048,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>17</t>
     </r>
     <r>
@@ -896,6 +1083,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>00</t>
     </r>
     <r>
@@ -1126,6 +1319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>18</t>
     </r>
     <r>
@@ -1158,6 +1357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>19</t>
     </r>
     <r>
@@ -1190,6 +1395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>20</t>
     </r>
     <r>
@@ -1219,6 +1430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>根据辨证结果采用的治则治法名称术语。参照</t>
     </r>
     <r>
@@ -1233,6 +1450,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>21</t>
     </r>
     <r>
@@ -1265,6 +1488,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>22</t>
     </r>
     <r>
@@ -1300,6 +1529,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>23</t>
     </r>
     <r>
@@ -1326,6 +1561,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗机构</t>
     </r>
     <r>
@@ -1340,6 +1581,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对应</t>
     </r>
     <r>
@@ -1372,6 +1619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>24</t>
     </r>
     <r>
@@ -1404,6 +1657,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>25</t>
     </r>
     <r>
@@ -1433,6 +1692,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>T-</t>
     </r>
     <r>
@@ -1465,6 +1730,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>26</t>
     </r>
     <r>
@@ -1497,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>　默认值</t>
     </r>
     <r>
@@ -1514,6 +1791,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -1528,6 +1811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0.5</t>
     </r>
     <r>
@@ -1542,6 +1831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.0</t>
     </r>
     <r>
@@ -1556,6 +1851,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.5</t>
     </r>
     <r>
@@ -1570,6 +1871,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.0</t>
     </r>
     <r>
@@ -1584,6 +1891,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.5</t>
     </r>
     <r>
@@ -1598,6 +1911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3.0</t>
     </r>
     <r>
@@ -1612,6 +1931,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3.5</t>
     </r>
     <r>
@@ -1626,6 +1951,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.0</t>
     </r>
     <r>
@@ -1640,6 +1971,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.5</t>
     </r>
     <r>
@@ -1654,6 +1991,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.0</t>
     </r>
     <r>
@@ -1668,6 +2011,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>27</t>
     </r>
     <r>
@@ -1697,6 +2046,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>28</t>
     </r>
     <r>
@@ -1726,6 +2081,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>29</t>
     </r>
     <r>
@@ -1755,6 +2116,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>30</t>
     </r>
     <r>
@@ -1784,6 +2151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>31</t>
     </r>
     <r>
@@ -1813,6 +2186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>32</t>
     </r>
     <r>
@@ -1842,6 +2221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>33</t>
     </r>
     <r>
@@ -1871,6 +2256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上传标识</t>
     </r>
     <r>
@@ -1921,6 +2312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>34</t>
     </r>
     <r>
@@ -1950,6 +2347,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>35</t>
     </r>
     <r>
@@ -1979,6 +2382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>20</t>
     </r>
     <r>
@@ -1993,6 +2402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>25</t>
     </r>
     <r>
@@ -2007,6 +2422,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>27</t>
     </r>
     <r>
@@ -2021,6 +2442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>28</t>
     </r>
     <r>
@@ -2035,6 +2462,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>38</t>
     </r>
     <r>
@@ -2049,6 +2482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>40</t>
     </r>
     <r>
@@ -2063,6 +2502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>36</t>
     </r>
     <r>
@@ -2092,6 +2537,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2106,6 +2557,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2120,6 +2577,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -2134,6 +2597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>37</t>
     </r>
     <r>
@@ -2163,6 +2632,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>38</t>
     </r>
     <r>
@@ -2192,6 +2667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>39</t>
     </r>
     <r>
@@ -2221,6 +2702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>40</t>
     </r>
     <r>
@@ -2250,6 +2737,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>41</t>
     </r>
     <r>
@@ -2279,6 +2772,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>42</t>
     </r>
     <r>
@@ -2311,6 +2810,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2325,6 +2830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>43</t>
     </r>
     <r>
@@ -2351,6 +2862,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDF</t>
     </r>
     <r>
@@ -2365,6 +2882,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对应</t>
     </r>
     <r>
@@ -2397,6 +2920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>44</t>
     </r>
     <r>
@@ -2426,6 +2955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>身高，单位</t>
     </r>
     <r>
@@ -2440,6 +2975,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>45</t>
     </r>
     <r>
@@ -2466,6 +3007,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>体重，单位</t>
     </r>
     <r>
@@ -2480,6 +3027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>46</t>
     </r>
     <r>
@@ -2509,6 +3062,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>47</t>
     </r>
     <r>
@@ -2535,6 +3094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>血压，单位</t>
     </r>
     <r>
@@ -2549,6 +3114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>48</t>
     </r>
     <r>
@@ -2578,6 +3149,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>49</t>
     </r>
     <r>
@@ -2607,6 +3184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>50</t>
     </r>
     <r>
@@ -2636,6 +3219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>51</t>
     </r>
     <r>
@@ -2665,6 +3254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -2691,6 +3286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>CA</t>
     </r>
     <r>
@@ -2705,6 +3306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2719,6 +3326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2733,6 +3346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>53</t>
     </r>
     <r>
@@ -2762,6 +3381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2791,6 +3416,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX_T_MedicalRecord_</t>
     </r>
     <r>
@@ -2805,6 +3436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX_T_MedicalRecord_</t>
     </r>
     <r>
@@ -2819,6 +3456,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX_T_MedicalRecord_</t>
     </r>
     <r>
@@ -2833,6 +3476,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX_T_MedicalRecord_</t>
     </r>
     <r>
@@ -2847,6 +3496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX_T_MedicalRecord_</t>
     </r>
     <r>
@@ -2864,6 +3519,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>主键</t>
     </r>
     <r>
@@ -2920,6 +3581,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机构</t>
     </r>
     <r>
@@ -2937,6 +3604,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>订单</t>
     </r>
     <r>
@@ -2957,6 +3630,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2971,6 +3650,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2985,6 +3670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -3005,6 +3696,1488 @@
   </si>
   <si>
     <t>IX_T_OrderPay_SHDDH</t>
+  </si>
+  <si>
+    <t>数据项</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <r>
+      <t>数据类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
+    <t>长 度</t>
+  </si>
+  <si>
+    <r>
+      <t>填报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要求</t>
+    </r>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>值域</t>
+  </si>
+  <si>
+    <t>机构标识</t>
+  </si>
+  <si>
+    <t>JGDM</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>应填</t>
+  </si>
+  <si>
+    <t>见机构信息表机构标识。</t>
+  </si>
+  <si>
+    <t>服务网点代码</t>
+  </si>
+  <si>
+    <t>FWWDDM</t>
+  </si>
+  <si>
+    <t>见机构信息表服务网点代码说明。</t>
+  </si>
+  <si>
+    <t>就诊类型</t>
+  </si>
+  <si>
+    <t>JZLX</t>
+  </si>
+  <si>
+    <t>参考广东省卫生信息平台规范</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参考广东省规范， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见《广东省互联网医院服务监管平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据规范（其他）》</t>
+    </r>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <r>
+      <t>就诊对象在医疗机构信息系统中使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用的唯一标识号。</t>
+    </r>
+  </si>
+  <si>
+    <t>卡类型</t>
+  </si>
+  <si>
+    <t>KLX</t>
+  </si>
+  <si>
+    <t>联合主键。 填写卡对应类型的编码。</t>
+  </si>
+  <si>
+    <r>
+      <t>0: 号，健康卡， 4：计划免疫卡 1：社保卡， ,5:国家居民健康卡， 2：市民卡， 3：医6院系 ：居民健康 统内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>档案编号 9：其他</t>
+    </r>
+  </si>
+  <si>
+    <t>门诊号</t>
+  </si>
+  <si>
+    <t>MZH</t>
+  </si>
+  <si>
+    <r>
+      <t>按照某一特定编码规则赋予门诊就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊对象某次就诊的顺序号</t>
+    </r>
+  </si>
+  <si>
+    <t>科室编码</t>
+  </si>
+  <si>
+    <r>
+      <t>院内科室编码。患者在医疗机构就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊的科室编码。</t>
+    </r>
+  </si>
+  <si>
+    <t>科室名称</t>
+  </si>
+  <si>
+    <t>KSMC</t>
+  </si>
+  <si>
+    <t>患者在医疗机构就诊的科室名称。</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>患者姓名</t>
+  </si>
+  <si>
+    <t>性别代码</t>
+  </si>
+  <si>
+    <t>XBDM</t>
+  </si>
+  <si>
+    <r>
+      <t>GB/T 2261.1-2003 个人基本信息分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类与代码 第 1 部分:人的性别代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参考广东省规范， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见《广东省互联网医院服务监管平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据规范（个人信息）》</t>
+    </r>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>CSRQ</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>年龄（岁）</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>数值型</t>
+  </si>
+  <si>
+    <r>
+      <t>患者年龄满 1 周岁的实足年龄，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者出生后按照日历计算的历法年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龄，以实足年龄的相应整数填写。</t>
+    </r>
+  </si>
+  <si>
+    <t>年龄（月）</t>
+  </si>
+  <si>
+    <t>NLY</t>
+  </si>
+  <si>
+    <t>字符型</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>年龄不足 1 周岁的月龄，以分数形
+式表示，分数的整数部分为实足月龄，分数部分分母为 30，分子为不
+足 1 个月的天数。如 3 个月 15 日表
+达为 3 15/30</t>
+  </si>
+  <si>
+    <t>标识患者有无过敏经历的标志</t>
+  </si>
+  <si>
+    <t>T-有， F-无</t>
+  </si>
+  <si>
+    <t>患者既往发生过敏情况的详细描述</t>
+  </si>
+  <si>
+    <t>参保类别</t>
+  </si>
+  <si>
+    <t>CBLB</t>
+  </si>
+  <si>
+    <t>字符</t>
+  </si>
+  <si>
+    <t>编码。</t>
+  </si>
+  <si>
+    <r>
+      <t>日期时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+  </si>
+  <si>
+    <t>就诊诊断日期。</t>
+  </si>
+  <si>
+    <t>初诊标志代码</t>
+  </si>
+  <si>
+    <t>CZBZDM</t>
+  </si>
+  <si>
+    <r>
+      <t>患者是否因该疾病首次就诊的分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+  </si>
+  <si>
+    <t>1-初诊， 2-复诊</t>
+  </si>
+  <si>
+    <r>
+      <t>对患者本次疾病相关的主要症状及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其持续时间的描述。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>对患者当前所患疾病情况的详细描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>既往健康状况及重要相关病史的描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>患者辅助检查、检验项目的通用名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>患者辅助检查、检查结果的详细描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>门诊症状-诊断代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主要症状编码，疾病分类代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICD-10 R 部分。如有多个，用中文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角分号“；”间隔。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参考卫生部规范， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见《广东省互联网医院服务监管平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据规范（健康档案数据元）》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>门诊症状-诊断名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主要症状名称。如有多个，如存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多条诊断，用中文全角分号“；”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间隔。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>门诊症状诊断编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码类型</t>
+    </r>
+  </si>
+  <si>
+    <t>01 -2012 ： ICD ； -05 10：省 ； 022017 ：国标版； -9599 ； -03 临时码 ：国标-97； 04： 国家版</t>
+  </si>
+  <si>
+    <t>对个体出现症状的详细描述。</t>
+  </si>
+  <si>
+    <r>
+      <t>中医证候辨证分型主要依据的详细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>根据辨证结果采用的治则治法名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术语。参照 GB/T16751.3-1997</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在就诊者临床表现基础上为其制定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的处置计划的详细描述</t>
+    </r>
+  </si>
+  <si>
+    <t>应诊医生工号</t>
+  </si>
+  <si>
+    <t>YZYSGH</t>
+  </si>
+  <si>
+    <t>院内医生工号。</t>
+  </si>
+  <si>
+    <t>应诊医师签名</t>
+  </si>
+  <si>
+    <t>YZYSQM</t>
+  </si>
+  <si>
+    <t>医生姓名</t>
+  </si>
+  <si>
+    <r>
+      <t>初诊医疗卫生机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构代码</t>
+    </r>
+  </si>
+  <si>
+    <t>CZYLWSJGDM</t>
+  </si>
+  <si>
+    <t>广东省内医院的医疗卫生机构唯一
+标识码， 非广东省内医院则采用 L+
+属地行政区划码（市） +5 位流水号，
+如浙江大学附属第一医院——L330100001。 编码应能唯一标识某
+一医疗卫生机构。</t>
+  </si>
+  <si>
+    <r>
+      <t>见《广东省互联网医院服务监管平台数据规范（组织机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构）》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>初诊医疗卫生机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构名称</t>
+    </r>
+  </si>
+  <si>
+    <t>CZYLWSJGMC</t>
+  </si>
+  <si>
+    <t>医院名称</t>
+  </si>
+  <si>
+    <t>对于门诊类：填门（急）诊结束时 间；</t>
+  </si>
+  <si>
+    <t>处理转诊记录</t>
+  </si>
+  <si>
+    <t>T-转诊， F-未转诊</t>
+  </si>
+  <si>
+    <t>患者满意度</t>
+  </si>
+  <si>
+    <t>HZMYD</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <r>
+      <t>患者对诊疗服务的满意度评分，编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-十分满意， 2-满意， 3-一般， 4-不满意， 5-非常不满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意</t>
+    </r>
+  </si>
+  <si>
+    <t>为处理该数据而预留</t>
+  </si>
+  <si>
+    <t>不填</t>
+  </si>
+  <si>
+    <r>
+      <t>电子处方文件存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放地址</t>
+    </r>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <r>
+      <t>是否本地存有电子处方文件（png 或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pdf 格式） ，并能通过获取处方接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供相应的图片</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>医生端视频文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存放地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>YSDSPWJCFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>是否本地存有医生端的视频文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（医生角度）， 并能通过获取医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端视频接口提供播放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>患者端视频文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存放地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HZDSPWJCFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>是否本地存有患者端的视频文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（患者角度）， 并能通过获取患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端视频接口提供播放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>交流音频存放地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>址</t>
+    </r>
+  </si>
+  <si>
+    <t>JLYPCFDZ</t>
+  </si>
+  <si>
+    <t>是否本地存有频文件，并能医生通过与患者获取交流 交流音频接口提供播放</t>
+  </si>
+  <si>
+    <r>
+      <t>数据生成日期时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+  </si>
+  <si>
+    <t>SJSCSJ</t>
+  </si>
+  <si>
+    <r>
+      <t>业务操作上获取该病历信息的时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间，如数据生成日期时间、数据修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改日期时间或数据撤销日期时间。</t>
+    </r>
+  </si>
+  <si>
+    <t>填报日期</t>
+  </si>
+  <si>
+    <t>TBRQSJ</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <r>
+      <t>机构向区域平台向前置机写入数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间戳。注：该数据由前置机生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成。</t>
+    </r>
+  </si>
+  <si>
+    <t>密级</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>01-一般， 02-个人信息加密</t>
+  </si>
+  <si>
+    <t>撤销标志</t>
+  </si>
+  <si>
+    <t>CXBZ</t>
+  </si>
+  <si>
+    <t>1：正常、 2：修改、 3：撤销；</t>
   </si>
 </sst>
 </file>
@@ -3017,13 +5190,25 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -3044,56 +5229,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3111,9 +5251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,8 +5276,64 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3152,10 +5356,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3167,29 +5379,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3220,7 +5411,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3232,7 +5465,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,121 +5579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3370,47 +5591,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3494,21 +5700,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3538,17 +5729,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3571,13 +5758,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3587,10 +5793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3599,16 +5805,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3617,182 +5823,188 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4156,2250 +6368,2250 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="16">
         <v>36</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="16">
         <v>36</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" ht="39" spans="1:10">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="18" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" ht="39" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" ht="39" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" ht="26.25" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" ht="26.25" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:10">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <v>36</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" ht="39" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:10">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="16">
         <v>36</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" ht="51.75" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:10">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="16">
         <v>50</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="18" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" ht="51.75" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:10">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="18" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" ht="26.25" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:10">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="16">
         <v>200</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:10">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="16">
         <v>1</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="17"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" ht="26.25" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" ht="39" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:10">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="16">
         <v>1000</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:10">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="16">
         <v>200</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" ht="77.25" spans="1:10">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="16">
         <v>2000</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="18" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" ht="51.75" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="16">
         <v>1000</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="18" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" ht="51.75" spans="1:10">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="16">
         <v>200</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="18" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" ht="51.75" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:10">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="16">
         <v>1000</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="18" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" ht="51.75" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" ht="154.5" customHeight="1" spans="1:10">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="16">
         <v>200</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="18" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="17"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" ht="77.25" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="18" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" ht="51.75" spans="1:10">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:10">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="16">
         <v>400</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="18" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="17"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" ht="115.5" spans="1:10">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="18" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="17"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" ht="77.25" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="18" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="17"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" ht="51.75" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="17"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" ht="39.75" customHeight="1" spans="1:10">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="16">
         <v>2</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="18" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="17"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" ht="153.75" spans="1:10">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="18" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J42" s="17"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" ht="39" spans="1:10">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="17"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="16">
         <v>200</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="18" t="s">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="17"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" ht="39" spans="1:10">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J45" s="17"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="16">
         <v>200</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="18" t="s">
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="17"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" ht="64.5" spans="1:10">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="16">
         <v>200</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="18" t="s">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" ht="90" spans="1:10">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="16">
         <v>200</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="18" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="17"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" ht="26.25" spans="1:10">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J51" s="17"/>
+      <c r="J51" s="19"/>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="16">
         <v>200</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="18" t="s">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J52" s="17"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" ht="90" spans="1:10">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="18" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J53" s="17"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" ht="14.25" spans="1:10">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J54" s="17"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:10">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="16">
         <v>36</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="18" t="s">
+      <c r="F55" s="17"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="17"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" ht="51.75" spans="1:10">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J56" s="17"/>
+      <c r="J56" s="19"/>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:10">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15" t="s">
+      <c r="E57" s="16"/>
+      <c r="F57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="18" t="s">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="J57" s="17"/>
+      <c r="J57" s="19"/>
     </row>
     <row r="58" ht="51.75" spans="1:10">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J58" s="17"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:10">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="16">
         <v>1</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="18" t="s">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J59" s="17"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" ht="26.25" spans="1:10">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J60" s="17"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:10">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="18" t="s">
+      <c r="H61" s="15"/>
+      <c r="I61" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="J61" s="17"/>
+      <c r="J61" s="19"/>
     </row>
     <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="18" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="17"/>
+      <c r="J62" s="19"/>
     </row>
     <row r="63" ht="14.25" spans="1:10">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="18" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J63" s="17"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" ht="14.25" spans="1:10">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="18" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J64" s="17"/>
+      <c r="J64" s="19"/>
     </row>
     <row r="65" ht="26.25" spans="1:10">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="18" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J65" s="17"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" ht="14.25" spans="1:10">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="18" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="J66" s="17"/>
+      <c r="J66" s="19"/>
     </row>
     <row r="67" ht="26.25" spans="1:10">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="18" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J67" s="17"/>
+      <c r="J67" s="19"/>
     </row>
     <row r="68" ht="14.25" spans="1:10">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="18" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J68" s="17"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" ht="26.25" spans="1:10">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="18" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J69" s="17"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" ht="14.25" spans="1:10">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="18" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J70" s="17"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" ht="26.25" spans="1:10">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="18" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J71" s="17"/>
+      <c r="J71" s="19"/>
     </row>
     <row r="72" ht="14.25" spans="1:10">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13" t="s">
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="J72" s="17"/>
+      <c r="J72" s="19"/>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:10">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="19" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="16">
         <v>100</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13" t="s">
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J73" s="17"/>
+      <c r="J73" s="19"/>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:10">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="16">
         <v>100</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13" t="s">
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="J74" s="17"/>
+      <c r="J74" s="19"/>
     </row>
     <row r="75" ht="39.75" customHeight="1" spans="1:10">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="16">
         <v>100</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13" t="s">
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J75" s="17"/>
+      <c r="J75" s="19"/>
     </row>
     <row r="76" ht="27" customHeight="1" spans="1:10">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="16">
         <v>100</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13" t="s">
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J76" s="17"/>
+      <c r="J76" s="19"/>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:10">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J77" s="17"/>
+      <c r="J77" s="19"/>
     </row>
     <row r="78" ht="15" customHeight="1" spans="1:10">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J78" s="17"/>
+      <c r="J78" s="19"/>
     </row>
     <row r="79" ht="39.75" customHeight="1" spans="1:10">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="17">
         <v>1</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J79" s="17"/>
+      <c r="J79" s="19"/>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:10">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="15"/>
+      <c r="D80" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="17">
         <v>5</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13" t="s">
+      <c r="F80" s="17"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J80" s="17"/>
+      <c r="J80" s="19"/>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:10">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="17">
         <v>3</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="18" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J81" s="17"/>
+      <c r="J81" s="19"/>
     </row>
     <row r="82" ht="26.25" spans="1:10">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="18" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="J82" s="17"/>
+      <c r="J82" s="19"/>
     </row>
     <row r="83" ht="26.25" spans="1:10">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="18" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J83" s="17"/>
+      <c r="J83" s="19"/>
     </row>
     <row r="84" ht="51.75" spans="1:10">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="18" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="J84" s="17"/>
+      <c r="J84" s="19"/>
     </row>
     <row r="85" ht="51.75" spans="1:10">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="18" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J85" s="17"/>
+      <c r="J85" s="19"/>
     </row>
     <row r="86" ht="26.25" spans="1:10">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="18" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="J86" s="17"/>
+      <c r="J86" s="19"/>
     </row>
     <row r="87" ht="26.25" spans="1:10">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J87" s="17"/>
+      <c r="J87" s="19"/>
     </row>
     <row r="88" ht="27" customHeight="1" spans="1:10">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14" t="s">
+      <c r="C88" s="15"/>
+      <c r="D88" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="17">
         <v>1</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="18" t="s">
+      <c r="F88" s="17"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="J88" s="17"/>
+      <c r="J88" s="19"/>
     </row>
     <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="18" t="s">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="J89" s="17"/>
+      <c r="J89" s="19"/>
     </row>
     <row r="90" ht="14.25" spans="1:10">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="18" t="s">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J90" s="17"/>
+      <c r="J90" s="19"/>
     </row>
     <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13" t="s">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J91" s="17"/>
+      <c r="J91" s="19"/>
     </row>
     <row r="92" ht="27" customHeight="1" spans="1:10">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15" t="s">
+      <c r="E92" s="17"/>
+      <c r="F92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13" t="s">
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J92" s="17"/>
+      <c r="J92" s="19"/>
     </row>
     <row r="93" ht="27" customHeight="1" spans="1:10">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="15"/>
+      <c r="D93" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="17">
         <v>200</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13" t="s">
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J93" s="17"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:10">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="15"/>
+      <c r="D94" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="16">
         <v>200</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13" t="s">
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J94" s="17"/>
+      <c r="J94" s="19"/>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:10">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="15"/>
+      <c r="D95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="16">
         <v>200</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13" t="s">
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J95" s="17"/>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" ht="15" customHeight="1" spans="1:10">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13" t="s">
+      <c r="C96" s="15"/>
+      <c r="D96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="16">
         <v>200</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13" t="s">
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J96" s="17"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" ht="27" customHeight="1" spans="1:10">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="15"/>
+      <c r="D97" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="16">
         <v>1</v>
       </c>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="18" t="s">
+      <c r="F97" s="17"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="J97" s="17"/>
+      <c r="J97" s="19"/>
     </row>
     <row r="98" ht="26.25" spans="1:10">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13" t="s">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J98" s="17"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" ht="15" customHeight="1" spans="1:10">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14" t="s">
+      <c r="C99" s="15"/>
+      <c r="D99" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="17">
         <v>200</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="18" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J99" s="17"/>
+      <c r="J99" s="19"/>
     </row>
     <row r="100" ht="39" spans="1:10">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J100" s="17"/>
+      <c r="J100" s="19"/>
     </row>
     <row r="101" ht="27" customHeight="1" spans="1:10">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14" t="s">
+      <c r="C101" s="15"/>
+      <c r="D101" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15" t="s">
+      <c r="E101" s="17"/>
+      <c r="F101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13" t="s">
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J101" s="17"/>
+      <c r="J101" s="19"/>
     </row>
     <row r="102" ht="27" customHeight="1" spans="1:10">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="15"/>
+      <c r="D102" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15" t="s">
+      <c r="E102" s="17"/>
+      <c r="F102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13" t="s">
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="J102" s="17"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" ht="27" customHeight="1" spans="1:10">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="15"/>
+      <c r="D103" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15" t="s">
+      <c r="E103" s="17"/>
+      <c r="F103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13" t="s">
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="J103" s="17"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" ht="27" customHeight="1" spans="1:10">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14" t="s">
+      <c r="C104" s="15"/>
+      <c r="D104" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="17">
         <v>100</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13" t="s">
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J104" s="17"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" ht="27" customHeight="1" spans="1:10">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="16">
         <v>200</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13" t="s">
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J105" s="17"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:10">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13" t="s">
+      <c r="C106" s="15"/>
+      <c r="D106" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="16">
         <v>200</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13" t="s">
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J106" s="17"/>
+      <c r="J106" s="19"/>
     </row>
     <row r="107" ht="27" customHeight="1" spans="1:10">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14" t="s">
+      <c r="C107" s="15"/>
+      <c r="D107" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15" t="s">
+      <c r="E107" s="17"/>
+      <c r="F107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13" t="s">
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="J107" s="17"/>
+      <c r="J107" s="19"/>
     </row>
     <row r="108" ht="27" customHeight="1" spans="1:10">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14" t="s">
+      <c r="C108" s="15"/>
+      <c r="D108" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="17">
         <v>200</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13" t="s">
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J108" s="17"/>
+      <c r="J108" s="19"/>
     </row>
     <row r="109" ht="27" customHeight="1" spans="1:10">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13" t="s">
+      <c r="C109" s="15"/>
+      <c r="D109" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="16">
         <v>1</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="18" t="s">
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J109" s="17"/>
+      <c r="J109" s="19"/>
     </row>
     <row r="110" ht="51.75" spans="1:10">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="18" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="J110" s="17"/>
+      <c r="J110" s="19"/>
     </row>
     <row r="111" ht="14.25" spans="1:10">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13" t="s">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J111" s="17"/>
+      <c r="J111" s="19"/>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:10">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13" t="s">
+      <c r="C112" s="15"/>
+      <c r="D112" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="16">
         <v>1</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="18" t="s">
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="J112" s="20"/>
+      <c r="J112" s="22"/>
     </row>
     <row r="113" ht="26.25" spans="1:10">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13" t="s">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="J113" s="20"/>
+      <c r="J113" s="22"/>
     </row>
     <row r="114" ht="15" customHeight="1" spans="1:10">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10" t="s">
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10" t="s">
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:10">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="15" t="s">
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:10">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="15" t="s">
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" ht="15" customHeight="1" spans="1:10">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="15" t="s">
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:10">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="15" t="s">
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:10">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="15" t="s">
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:10">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="15" t="s">
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:10">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="15" t="s">
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:10">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="15" t="s">
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="284">
@@ -6698,7 +8910,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6708,366 +8920,366 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" ht="26.25" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>50</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" ht="26.25" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>50</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>50</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>50</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>36</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>36</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" ht="26.25" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" ht="26.25" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" ht="26.25" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" ht="26.25" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -7097,4 +9309,1053 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="45.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="27" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="108" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="27" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="27" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="27" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="1">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="27" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="27" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="27" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="27" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="27" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="1">
+        <v>200</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="27" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="1">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="1">
+        <v>400</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="81" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="1">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="27" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="1">
+        <v>200</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="27" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="1">
+        <v>200</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="1">
+        <v>200</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="27" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="1">
+        <v>200</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="27" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="27" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="81" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="1">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="1">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="1">
+        <v>200</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="162" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="94.5" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="27" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>